--- a/koalaBaseData.xlsx
+++ b/koalaBaseData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0898FFB-B11D-4DDD-B250-57EA4D54DF54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ABBA27-70B1-4C10-A183-CABEAC62120B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t xml:space="preserve">Call Date </t>
   </si>
@@ -131,6 +131,135 @@
   </si>
   <si>
     <t>Release LNG</t>
+  </si>
+  <si>
+    <t>A 2331</t>
+  </si>
+  <si>
+    <t>PHILLY</t>
+  </si>
+  <si>
+    <t>Sub-Adult (2-4kg)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>In tree</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Alexandra Hills</t>
+  </si>
+  <si>
+    <t>Redland City Council</t>
+  </si>
+  <si>
+    <t>23/05/1997</t>
+  </si>
+  <si>
+    <t>A 3395</t>
+  </si>
+  <si>
+    <t>SAMMY</t>
+  </si>
+  <si>
+    <t>Adult (More than 4kg)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Shailer Park</t>
+  </si>
+  <si>
+    <t>Logan City Council</t>
+  </si>
+  <si>
+    <t>15/10/1998</t>
+  </si>
+  <si>
+    <t>A 3587</t>
+  </si>
+  <si>
+    <t>LUCKY</t>
+  </si>
+  <si>
+    <t>Cornubia</t>
+  </si>
+  <si>
+    <t>Mount Cotton</t>
+  </si>
+  <si>
+    <t>23/10/1998</t>
+  </si>
+  <si>
+    <t>A 6277a</t>
+  </si>
+  <si>
+    <t>MOLLY</t>
+  </si>
+  <si>
+    <t>Young (up to 2kg)</t>
+  </si>
+  <si>
+    <t>Hospital.</t>
+  </si>
+  <si>
+    <t>Birkdale</t>
+  </si>
+  <si>
+    <t>Fall.</t>
+  </si>
+  <si>
+    <t>30/04/1999</t>
+  </si>
+  <si>
+    <t>A 6770</t>
+  </si>
+  <si>
+    <t>EWOK</t>
+  </si>
+  <si>
+    <t>In captivity</t>
+  </si>
+  <si>
+    <t>Ormiston</t>
+  </si>
+  <si>
+    <t>A 6671</t>
+  </si>
+  <si>
+    <t>TIANA</t>
+  </si>
+  <si>
+    <t>Capalaba</t>
+  </si>
+  <si>
+    <t>14/01/1999</t>
+  </si>
+  <si>
+    <t>A 168586</t>
+  </si>
+  <si>
+    <t>POPPY</t>
+  </si>
+  <si>
+    <t>A 168584</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>Rochedale South</t>
+  </si>
+  <si>
+    <t>Springwood</t>
   </si>
 </sst>
 </file>
@@ -166,8 +295,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,13 +578,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -567,6 +700,694 @@
       </c>
       <c r="AK1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>35431</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>-27.544270000000001</v>
+      </c>
+      <c r="E2">
+        <v>153.2245087</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2">
+        <v>4161</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>35674</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>-27.648228199999998</v>
+      </c>
+      <c r="E3">
+        <v>153.1712842</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3">
+        <v>4128</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>-27.650997700000001</v>
+      </c>
+      <c r="E4">
+        <v>153.21195230000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4">
+        <v>4130</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>35865</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>-27.4900254</v>
+      </c>
+      <c r="E5">
+        <v>153.21650249999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5">
+        <v>4159</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI5">
+        <v>4159</v>
+      </c>
+      <c r="AJ5">
+        <v>-27.486059999999998</v>
+      </c>
+      <c r="AK5">
+        <v>153.21285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>35897</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>-27.502233199999999</v>
+      </c>
+      <c r="E6">
+        <v>153.25763130000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6">
+        <v>4160</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>36342</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>-27.534809299999999</v>
+      </c>
+      <c r="E7">
+        <v>153.18084060000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7">
+        <v>4157</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>37323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>-27.603358799999999</v>
+      </c>
+      <c r="E8">
+        <v>153.13129789999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8">
+        <v>4123</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>37507</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI8">
+        <v>4123</v>
+      </c>
+      <c r="AJ8">
+        <v>-27.589378</v>
+      </c>
+      <c r="AK8">
+        <v>153.18528599999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>37323</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>-27.551468799999999</v>
+      </c>
+      <c r="E9">
+        <v>153.2165621</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9">
+        <v>4157</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>37507</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/koalaBaseData.xlsx
+++ b/koalaBaseData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ABBA27-70B1-4C10-A183-CABEAC62120B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73823E43-4EE8-4D55-A0B9-6685D26E98A4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,12 +581,15 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
